--- a/Table Metadata.xlsx
+++ b/Table Metadata.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qn74bk\Downloads\Python Projects\Peer-to-peer lending\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qn74bk\Downloads\Python Projects\Stretch\KiwaLoans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B2AF6A-2530-4154-B89D-95645BCFBC57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA7626-8FB6-4C70-B249-3F225D5DB899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A9E86170-AA3D-4126-80E0-E42242D1B856}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9E86170-AA3D-4126-80E0-E42242D1B856}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table info" sheetId="1" r:id="rId1"/>
-    <sheet name="Object info" sheetId="2" r:id="rId2"/>
-    <sheet name="Sectors" sheetId="3" r:id="rId3"/>
-    <sheet name="Activities" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Schema" sheetId="6" r:id="rId1"/>
+    <sheet name="Table info" sheetId="1" r:id="rId2"/>
+    <sheet name="Object info" sheetId="2" r:id="rId3"/>
+    <sheet name="Sectors" sheetId="3" r:id="rId4"/>
+    <sheet name="Activities" sheetId="4" r:id="rId5"/>
+    <sheet name="Countries" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="729">
   <si>
     <t>Column_name</t>
   </si>
@@ -1033,9 +1034,6 @@
   </si>
   <si>
     <t>LoanBorrowerRelationship</t>
-  </si>
-  <si>
-    <t>LoanLenderRelationship</t>
   </si>
   <si>
     <t>LenderTeamRelationship</t>
@@ -2447,7 +2445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2544,17 +2542,8 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2723,9 +2712,102 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>297018</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>96220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C98B0C8-6F7A-47FA-A729-4932037B0DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411200" y="6096000"/>
+          <a:ext cx="12489018" cy="6954220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>297018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>96220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F8CD3E-90B4-40F0-9C4B-8F607FCCE295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12489018" cy="6954220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A2792FB-1EAA-4BC7-B815-01C002A141FC}" name="Table1" displayName="Table1" ref="A1:G120" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:G120" xr:uid="{84C42EF4-9A49-4C78-81AD-9AC1E7E2A2FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A2792FB-1EAA-4BC7-B815-01C002A141FC}" name="Table1" displayName="Table1" ref="A1:G118" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:G118" xr:uid="{84C42EF4-9A49-4C78-81AD-9AC1E7E2A2FF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{87599C61-373C-423B-B8BE-37FD4A022230}" name="Table_Name" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{0371A5FC-CA9D-4C67-BA58-E19BF8BE36E4}" name="Column_name" dataDxfId="13"/>
@@ -2764,6 +2846,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{598620FC-9C3B-4E32-9D4B-C34BC8B9238C}" name="Table4" displayName="Table4" ref="A1:F77" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F77" xr:uid="{1C062328-0567-411D-A187-764D77813061}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F77">
+    <sortCondition ref="A1:A77"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{19443C57-A2AD-483E-8DEC-3054CE907869}" name="Country name" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{494CD26B-7468-4E79-A738-627F43E123B7}" name="isoCode" dataDxfId="4"/>
@@ -3072,11 +3157,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A0E43D-2D3F-401E-8463-40950B3A3962}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166C5B93-77B7-4259-90C3-5938865E9422}">
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4025,20 +4123,20 @@
         <v>220</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -4050,20 +4148,20 @@
         <v>220</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -4259,49 +4357,49 @@
       <c r="K43"/>
       <c r="S43"/>
     </row>
-    <row r="44" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+    <row r="44" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+    <row r="45" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5304,61 +5402,69 @@
       <c r="K82"/>
       <c r="S82"/>
     </row>
-    <row r="83" spans="1:19" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G84" s="37" t="s">
-        <v>9</v>
-      </c>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="S83"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="S84"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>205</v>
@@ -5370,7 +5476,7 @@
         <v>33</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I85"/>
       <c r="J85"/>
@@ -5382,22 +5488,22 @@
         <v>225</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I86"/>
       <c r="J86"/>
@@ -5409,22 +5515,22 @@
         <v>225</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I87"/>
       <c r="J87"/>
@@ -5436,22 +5542,22 @@
         <v>225</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I88"/>
       <c r="J88"/>
@@ -5463,22 +5569,22 @@
         <v>225</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89"/>
       <c r="J89"/>
@@ -5490,22 +5596,22 @@
         <v>225</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I90"/>
       <c r="J90"/>
@@ -5517,22 +5623,22 @@
         <v>225</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I91"/>
       <c r="J91"/>
@@ -5544,49 +5650,49 @@
         <v>225</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
       <c r="S92"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -5598,10 +5704,10 @@
         <v>225</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>205</v>
@@ -5613,22 +5719,22 @@
         <v>33</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
       <c r="S94"/>
     </row>
-    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>205</v>
@@ -5640,115 +5746,115 @@
         <v>33</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
       <c r="S95"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
-        <v>225</v>
+    <row r="96" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
       <c r="S96"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
-        <v>225</v>
+    <row r="97" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="S97"/>
     </row>
-    <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>333</v>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>175</v>
+        <v>30</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
       <c r="S98"/>
     </row>
-    <row r="99" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>333</v>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -5760,22 +5866,22 @@
         <v>226</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100" s="24" t="s">
         <v>196</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I100"/>
       <c r="J100"/>
@@ -5787,22 +5893,22 @@
         <v>226</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>196</v>
+        <v>31</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="I101"/>
       <c r="J101"/>
@@ -5814,22 +5920,22 @@
         <v>226</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>202</v>
+        <v>102</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>201</v>
+        <v>31</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I102"/>
       <c r="J102"/>
@@ -5837,26 +5943,26 @@
       <c r="S102"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>226</v>
+      <c r="A103" s="27" t="s">
+        <v>227</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>176</v>
+        <v>318</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>175</v>
+        <v>29</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="I103"/>
       <c r="J103"/>
@@ -5864,26 +5970,26 @@
       <c r="S103"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>226</v>
+      <c r="A104" s="27" t="s">
+        <v>227</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>78</v>
+        <v>319</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>9</v>
+        <v>101</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="I104"/>
       <c r="J104"/>
@@ -5895,22 +6001,22 @@
         <v>227</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F105" s="28" t="s">
         <v>117</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I105"/>
       <c r="J105"/>
@@ -5922,22 +6028,22 @@
         <v>227</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F106" s="28" t="s">
         <v>117</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I106"/>
       <c r="J106"/>
@@ -5949,22 +6055,22 @@
         <v>227</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F107" s="28" t="s">
         <v>117</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I107"/>
       <c r="J107"/>
@@ -5976,22 +6082,22 @@
         <v>227</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F108" s="28" t="s">
-        <v>117</v>
+      <c r="F108" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I108"/>
       <c r="J108"/>
@@ -5999,26 +6105,26 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
-        <v>227</v>
+      <c r="A109" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="28" t="s">
-        <v>117</v>
+        <v>31</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I109"/>
       <c r="J109"/>
@@ -6026,8 +6132,8 @@
       <c r="S109"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
-        <v>227</v>
+      <c r="A110" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>301</v>
@@ -6036,7 +6142,7 @@
         <v>132</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>29</v>
@@ -6057,22 +6163,22 @@
         <v>228</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F111" s="22" t="s">
         <v>128</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I111"/>
       <c r="J111"/>
@@ -6084,37 +6190,37 @@
         <v>228</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F112" s="22" t="s">
         <v>128</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
       <c r="S112"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
         <v>228</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>205</v>
@@ -6126,7 +6232,7 @@
         <v>128</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I113"/>
       <c r="J113"/>
@@ -6138,64 +6244,67 @@
         <v>228</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F114" s="22" t="s">
         <v>128</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
       <c r="S114"/>
     </row>
-    <row r="115" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
-        <v>228</v>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="2"/>
       <c r="S115"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
-        <v>228</v>
+      <c r="A116" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>205</v>
@@ -6203,26 +6312,27 @@
       <c r="E116" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F116" s="22" t="s">
-        <v>128</v>
+      <c r="F116" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
+      <c r="O116" s="2"/>
       <c r="S116"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
-        <v>229</v>
+      <c r="A117" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>34</v>
@@ -6230,8 +6340,8 @@
       <c r="E117" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F117" s="31" t="s">
-        <v>103</v>
+      <c r="F117" s="32" t="s">
+        <v>147</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>9</v>
@@ -6239,20 +6349,18 @@
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="2"/>
+      <c r="O117" s="2"/>
       <c r="S117"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
-        <v>229</v>
+      <c r="A118" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>205</v>
@@ -6260,8 +6368,8 @@
       <c r="E118" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F118" s="31" t="s">
-        <v>103</v>
+      <c r="F118" s="32" t="s">
+        <v>147</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>21</v>
@@ -6271,62 +6379,6 @@
       <c r="K118"/>
       <c r="O118" s="2"/>
       <c r="S118"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F119" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="O119" s="2"/>
-      <c r="S119"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F120" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="O120" s="2"/>
-      <c r="S120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6337,12 +6389,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE12AC3-489A-443A-B980-FAF61FA44AA7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6468,7 +6520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33540C74-71F5-4804-9C1C-40576C34C694}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -6495,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +6555,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6511,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6519,7 +6571,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6527,7 +6579,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6535,7 +6587,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6543,7 +6595,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6551,7 +6603,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6559,7 +6611,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6567,7 +6619,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6627,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6583,7 +6635,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6591,7 +6643,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6599,7 +6651,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6607,7 +6659,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6619,12 +6671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042C24E8-5F9A-4874-A5EE-13DE23B6AC94}">
   <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6646,7 +6698,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6654,7 +6706,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6662,7 +6714,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6670,7 +6722,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6678,7 +6730,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6686,7 +6738,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6694,7 +6746,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6702,7 +6754,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6710,7 +6762,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6718,7 +6770,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6726,7 +6778,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6734,7 +6786,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6742,7 +6794,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6750,7 +6802,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6758,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6766,7 +6818,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6774,7 +6826,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6782,7 +6834,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6790,7 +6842,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6798,7 +6850,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6806,7 +6858,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6814,7 +6866,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6822,7 +6874,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6830,7 +6882,7 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6838,7 +6890,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6846,7 +6898,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6854,7 +6906,7 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6862,7 +6914,7 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -6870,7 +6922,7 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6878,7 +6930,7 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -6886,7 +6938,7 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6894,7 +6946,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6902,7 +6954,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6910,7 +6962,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6918,7 +6970,7 @@
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -6926,7 +6978,7 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -6934,7 +6986,7 @@
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -6942,7 +6994,7 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -6950,7 +7002,7 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -6958,7 +7010,7 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -6966,7 +7018,7 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -6974,7 +7026,7 @@
         <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -6982,7 +7034,7 @@
         <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6990,7 +7042,7 @@
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -6998,7 +7050,7 @@
         <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7006,7 +7058,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7014,7 +7066,7 @@
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7022,7 +7074,7 @@
         <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7030,7 +7082,7 @@
         <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7038,7 +7090,7 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7046,7 +7098,7 @@
         <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7054,7 +7106,7 @@
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7062,7 +7114,7 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7070,7 +7122,7 @@
         <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7078,7 +7130,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7086,7 +7138,7 @@
         <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -7094,7 +7146,7 @@
         <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7102,7 +7154,7 @@
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -7110,7 +7162,7 @@
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -7118,7 +7170,7 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -7126,7 +7178,7 @@
         <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -7134,7 +7186,7 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -7142,7 +7194,7 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -7150,7 +7202,7 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -7158,7 +7210,7 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7166,7 +7218,7 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -7174,7 +7226,7 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -7182,7 +7234,7 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -7190,7 +7242,7 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -7198,7 +7250,7 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -7206,7 +7258,7 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -7214,7 +7266,7 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -7222,7 +7274,7 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -7230,7 +7282,7 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7238,7 +7290,7 @@
         <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -7246,7 +7298,7 @@
         <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -7254,7 +7306,7 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -7262,7 +7314,7 @@
         <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -7270,7 +7322,7 @@
         <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -7278,7 +7330,7 @@
         <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,7 +7338,7 @@
         <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -7294,7 +7346,7 @@
         <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -7302,7 +7354,7 @@
         <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -7310,7 +7362,7 @@
         <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -7318,7 +7370,7 @@
         <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -7326,7 +7378,7 @@
         <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -7334,7 +7386,7 @@
         <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -7342,7 +7394,7 @@
         <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -7350,7 +7402,7 @@
         <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7410,7 @@
         <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7366,7 +7418,7 @@
         <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7374,7 +7426,7 @@
         <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -7382,7 +7434,7 @@
         <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -7390,7 +7442,7 @@
         <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -7398,7 +7450,7 @@
         <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -7406,7 +7458,7 @@
         <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7414,7 +7466,7 @@
         <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7422,7 +7474,7 @@
         <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7482,7 @@
         <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -7438,7 +7490,7 @@
         <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -7446,7 +7498,7 @@
         <v>138</v>
       </c>
       <c r="B102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -7454,7 +7506,7 @@
         <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -7462,7 +7514,7 @@
         <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -7470,7 +7522,7 @@
         <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -7478,7 +7530,7 @@
         <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -7486,7 +7538,7 @@
         <v>144</v>
       </c>
       <c r="B107" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -7494,7 +7546,7 @@
         <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -7502,7 +7554,7 @@
         <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -7510,7 +7562,7 @@
         <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -7518,7 +7570,7 @@
         <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -7526,7 +7578,7 @@
         <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -7534,7 +7586,7 @@
         <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -7542,7 +7594,7 @@
         <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -7550,7 +7602,7 @@
         <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -7558,7 +7610,7 @@
         <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -7566,7 +7618,7 @@
         <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -7574,7 +7626,7 @@
         <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -7582,7 +7634,7 @@
         <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -7590,7 +7642,7 @@
         <v>164</v>
       </c>
       <c r="B120" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -7598,7 +7650,7 @@
         <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -7606,7 +7658,7 @@
         <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -7614,7 +7666,7 @@
         <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -7622,7 +7674,7 @@
         <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -7630,7 +7682,7 @@
         <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -7638,7 +7690,7 @@
         <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -7646,7 +7698,7 @@
         <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -7654,7 +7706,7 @@
         <v>175</v>
       </c>
       <c r="B128" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -7662,7 +7714,7 @@
         <v>176</v>
       </c>
       <c r="B129" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -7670,7 +7722,7 @@
         <v>177</v>
       </c>
       <c r="B130" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -7678,7 +7730,7 @@
         <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -7686,7 +7738,7 @@
         <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -7694,7 +7746,7 @@
         <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -7702,7 +7754,7 @@
         <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -7710,7 +7762,7 @@
         <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -7718,7 +7770,7 @@
         <v>186</v>
       </c>
       <c r="B136" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -7726,7 +7778,7 @@
         <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -7734,7 +7786,7 @@
         <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -7742,7 +7794,7 @@
         <v>194</v>
       </c>
       <c r="B139" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -7750,7 +7802,7 @@
         <v>195</v>
       </c>
       <c r="B140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -7758,7 +7810,7 @@
         <v>196</v>
       </c>
       <c r="B141" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -7766,7 +7818,7 @@
         <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -7774,7 +7826,7 @@
         <v>199</v>
       </c>
       <c r="B143" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -7782,7 +7834,7 @@
         <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -7790,7 +7842,7 @@
         <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -7798,7 +7850,7 @@
         <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -7806,7 +7858,7 @@
         <v>203</v>
       </c>
       <c r="B147" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -7814,7 +7866,7 @@
         <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -7822,7 +7874,7 @@
         <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -7830,7 +7882,7 @@
         <v>207</v>
       </c>
       <c r="B150" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -7838,7 +7890,7 @@
         <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -7846,7 +7898,7 @@
         <v>209</v>
       </c>
       <c r="B152" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -7854,7 +7906,7 @@
         <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -7862,7 +7914,7 @@
         <v>216</v>
       </c>
       <c r="B154" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -7870,7 +7922,7 @@
         <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -7878,7 +7930,7 @@
         <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -7886,7 +7938,7 @@
         <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -7894,7 +7946,7 @@
         <v>220</v>
       </c>
       <c r="B158" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -7902,7 +7954,7 @@
         <v>221</v>
       </c>
       <c r="B159" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -7910,7 +7962,7 @@
         <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -7918,7 +7970,7 @@
         <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -7926,7 +7978,7 @@
         <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -7934,7 +7986,7 @@
         <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -7942,7 +7994,7 @@
         <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7953,12 +8005,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F705A8A-67B4-42B1-92E2-429279B4E33D}">
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7973,19 +8025,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>130</v>
@@ -7993,1522 +8045,1522 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>507</v>
+        <v>637</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>508</v>
+        <v>638</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>510</v>
+        <v>639</v>
       </c>
       <c r="E2" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>67727350</v>
+        <v>8627850</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>512</v>
+        <v>587</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="E3" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>19840450</v>
+        <v>27085475</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>515</v>
+        <v>704</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>516</v>
+        <v>705</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="E4" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>6957100</v>
+        <v>268075</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>519</v>
+        <v>706</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>520</v>
+        <v>707</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>522</v>
+        <v>708</v>
       </c>
       <c r="E5" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>11089350</v>
+        <v>154275</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>523</v>
+        <v>697</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>524</v>
+        <v>698</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="E6" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>60284000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E7" s="3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
-        <v>32999675</v>
+        <v>60284000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>531</v>
+        <v>626</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>532</v>
+        <v>627</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>533</v>
+        <v>628</v>
       </c>
       <c r="E8" s="3">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>91528970</v>
+        <v>4568975</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3">
-        <v>1109825</v>
+        <v>9210450</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>539</v>
-      </c>
       <c r="E10" s="3">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3">
-        <v>61984000</v>
+        <v>67727350</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E11" s="3">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>61392400</v>
+        <v>3029725</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>543</v>
+        <v>689</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>544</v>
+        <v>690</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>546</v>
+        <v>691</v>
       </c>
       <c r="E12" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>18338000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>547</v>
+        <v>674</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>548</v>
+        <v>675</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>549</v>
+        <v>676</v>
       </c>
       <c r="E13" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>36399000</v>
+        <v>2637700</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F14" s="3">
-        <v>24721000</v>
+        <v>39185900</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="E15" s="3">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3">
-        <v>43430725</v>
+        <v>35141350</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="E16" s="3">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3">
-        <v>35372975</v>
+        <v>8974375</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="E17" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3">
-        <v>2279575</v>
+        <v>11089350</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="E18" s="3">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="F18" s="3">
-        <v>57517950</v>
+        <v>68014550</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>565</v>
+        <v>683</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>566</v>
+        <v>684</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>555</v>
+        <v>685</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3">
-        <v>19338625</v>
+        <v>4167775</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="E20" s="3">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="F20" s="3">
-        <v>106761025</v>
+        <v>60423925</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>570</v>
+        <v>702</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>571</v>
+        <v>703</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="E21" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>39983300</v>
+        <v>2874750</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="E22" s="3">
-        <v>2508</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
-        <v>164036025</v>
+        <v>12781575</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="E23" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F23" s="3">
-        <v>8974375</v>
+        <v>21641125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>579</v>
+        <v>716</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>580</v>
+        <v>717</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>581</v>
+        <v>718</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>978975</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>582</v>
+        <v>526</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E25" s="3">
-        <v>833</v>
+        <v>27</v>
       </c>
       <c r="F25" s="3">
-        <v>115607975</v>
+        <v>32999675</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="E26" s="3">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="F26" s="3">
-        <v>68014550</v>
+        <v>7471650</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>27085475</v>
+        <v>19338625</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="E28" s="3">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>39185900</v>
+        <v>13633500</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>596</v>
+        <v>513</v>
       </c>
       <c r="E29" s="3">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F29" s="3">
-        <v>35141350</v>
+        <v>12277275</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="E30" s="3">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>60423925</v>
+        <v>2607050</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>601</v>
+        <v>543</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
       <c r="E31" s="3">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F31" s="3">
-        <v>28270500</v>
+        <v>18338000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>833</v>
       </c>
       <c r="F32" s="3">
-        <v>2607050</v>
+        <v>115607975</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>546</v>
+        <v>642</v>
       </c>
       <c r="E33" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>12781575</v>
+        <v>4218425</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="E34" s="3">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F34" s="3">
-        <v>7992600</v>
+        <v>28270500</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="E35" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>15764625</v>
+        <v>1346450</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="E36" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>9210450</v>
+        <v>1116825</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F37" s="3">
-        <v>1442475</v>
+        <v>7992600</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>536</v>
+        <v>660</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F38" s="3">
-        <v>3029725</v>
+        <v>5536475</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
-        <v>13633500</v>
+        <v>5053975</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>624</v>
+        <v>680</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>625</v>
+        <v>681</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>626</v>
+        <v>682</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3">
-        <v>29542425</v>
+        <v>20239525</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E41" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>4568975</v>
+        <v>29542425</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>630</v>
+        <v>668</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>632</v>
+        <v>670</v>
       </c>
       <c r="E42" s="3">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F42" s="3">
-        <v>21641125</v>
+        <v>4537800</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>633</v>
+        <v>514</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>634</v>
+        <v>515</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E43" s="3">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F43" s="3">
-        <v>12277275</v>
+        <v>6957100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>637</v>
+        <v>563</v>
       </c>
       <c r="E44" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>123017075</v>
+        <v>5683500</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="E45" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>8627850</v>
+        <v>435825</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>641</v>
+        <v>533</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>642</v>
+        <v>534</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>589</v>
+        <v>508</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>643</v>
+        <v>535</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>4218425</v>
+        <v>1109825</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>644</v>
+        <v>552</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>645</v>
+        <v>553</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="E47" s="3">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F47" s="3">
-        <v>8642400</v>
+        <v>43430725</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>649</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>648</v>
+        <v>545</v>
       </c>
       <c r="E48" s="3">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F48" s="3">
-        <v>32080375</v>
+        <v>10168975</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>650</v>
+        <v>34</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>546</v>
+        <v>647</v>
       </c>
       <c r="E49" s="3">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F49" s="3">
-        <v>10168975</v>
+        <v>32080375</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>651</v>
+        <v>546</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>652</v>
+        <v>547</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="E50" s="3">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F50" s="3">
-        <v>13381575</v>
+        <v>36399000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>654</v>
+        <v>579</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>655</v>
+        <v>580</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51" s="3">
-        <v>9387300</v>
+        <v>978975</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>658</v>
+        <v>535</v>
       </c>
       <c r="E52" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>7471650</v>
+        <v>394500</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>659</v>
+        <v>530</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>660</v>
+        <v>531</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>661</v>
+        <v>532</v>
       </c>
       <c r="E53" s="3">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F53" s="3">
-        <v>5536475</v>
+        <v>91528970</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>662</v>
+        <v>566</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>663</v>
+        <v>567</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F54" s="3">
-        <v>5683500</v>
+        <v>106761025</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>664</v>
+        <v>572</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="E55" s="3">
-        <v>1</v>
+        <v>2508</v>
       </c>
       <c r="F55" s="3">
-        <v>5053975</v>
+        <v>164036025</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>542</v>
+        <v>724</v>
       </c>
       <c r="E56" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>2913375</v>
+        <v>3138400</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>669</v>
+        <v>561</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>670</v>
+        <v>562</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>671</v>
+        <v>563</v>
       </c>
       <c r="E57" s="3">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F57" s="3">
-        <v>4537800</v>
+        <v>57517950</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>672</v>
+        <v>510</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>673</v>
+        <v>511</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>674</v>
+        <v>513</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="F58" s="3">
-        <v>2954575</v>
+        <v>19840450</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F59" s="3">
-        <v>2637700</v>
+        <v>35372975</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>678</v>
+        <v>609</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>679</v>
+        <v>610</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>680</v>
+        <v>611</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F60" s="3">
-        <v>1346450</v>
+        <v>15764625</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>683</v>
+        <v>541</v>
       </c>
       <c r="E61" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F61" s="3">
-        <v>20239525</v>
+        <v>2913375</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="E62" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>4167775</v>
+        <v>1202625</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
       </c>
       <c r="F63" s="3">
-        <v>1116825</v>
+        <v>2473750</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>690</v>
+        <v>536</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>691</v>
+        <v>537</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>692</v>
+        <v>538</v>
       </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="F64" s="3">
-        <v>100000</v>
+        <v>61984000</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>693</v>
+        <v>549</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>694</v>
+        <v>550</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>695</v>
+        <v>551</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <v>1202625</v>
+        <v>24721000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>696</v>
+        <v>558</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>697</v>
+        <v>559</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>655</v>
+        <v>560</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F66" s="3">
-        <v>2473750</v>
+        <v>2279575</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>698</v>
+        <v>643</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>699</v>
+        <v>644</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F67" s="3">
-        <v>20000</v>
+        <v>8642400</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>702</v>
+        <v>614</v>
       </c>
       <c r="E68" s="3">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F68" s="3">
-        <v>3727075</v>
+        <v>13381575</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>549</v>
+        <v>701</v>
       </c>
       <c r="E69" s="3">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F69" s="3">
-        <v>2874750</v>
+        <v>3727075</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>705</v>
+        <v>615</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>706</v>
+        <v>616</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3">
-        <v>268075</v>
+        <v>1442475</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>707</v>
+        <v>539</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>708</v>
+        <v>540</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>709</v>
+        <v>541</v>
       </c>
       <c r="E71" s="3">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="F71" s="3">
-        <v>154275</v>
+        <v>61392400</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>710</v>
+        <v>634</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>711</v>
+        <v>635</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>536</v>
+        <v>636</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F72" s="3">
-        <v>394500</v>
+        <v>123017075</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>714</v>
+        <v>601</v>
       </c>
       <c r="E73" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F73" s="3">
-        <v>435825</v>
+        <v>421525</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>715</v>
+        <v>569</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>716</v>
+        <v>570</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="E74" s="3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F74" s="3">
-        <v>421525</v>
+        <v>39983300</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>23300</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>18000</v>
+        <v>2954575</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>723</v>
+        <v>652</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>724</v>
+        <v>653</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>725</v>
+        <v>654</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
       </c>
       <c r="F77" s="3">
-        <v>3138400</v>
+        <v>9387300</v>
       </c>
     </row>
   </sheetData>
